--- a/data/georgia_census/qvemo-qartli/walka/average_wages.xlsx
+++ b/data/georgia_census/qvemo-qartli/walka/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2765ACEE-3E8D-478A-880B-22898347C046}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96424011-C527-4AB2-B3A3-7850B8265812}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C038B45-91BD-40AA-B43F-00CD2061EB84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12265B56-4F74-4C82-9D88-AC37DC5C5B7B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D2E8DD-7591-4D16-81F9-30C2CEF16973}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CB15A59-F018-41BA-A7DE-67335DCCCA36}"/>
 </file>